--- a/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Zabbix)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Zabbix)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Zabbix)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Zabbix)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>共通設定</t>
   </si>
@@ -258,6 +262,261 @@
   </si>
   <si>
     <t>Y1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* Zabbix監視設定情報を採取します。</t>
+    <rPh sb="8" eb="10">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* .\template\Zabbix が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Zabbix\Zabbix監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
+    <rPh sb="25" eb="27">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Zabbix を指定します。</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象ホスト名。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Zabbix を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>（未使用）</t>
+    <rPh sb="1" eb="4">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ホスト名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>cent7</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Zabbix\config_zabbix.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>// Zabbix接続情報</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.server   = '192.168.0.20'</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.user     = 'Admin'</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.password = 'zabbix'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -265,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -321,8 +580,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +619,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -429,16 +701,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,10 +888,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -811,9 +1252,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="19" customWidth="1"/>
+    <col min="9" max="1017" width="8.75" style="19" customWidth="1"/>
+    <col min="1018" max="1019" width="11.625" style="19" customWidth="1"/>
+    <col min="1020" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="22">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="22">
+        <v>2</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="22">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="22">
+        <v>4</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="22">
+        <v>5</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="22">
+        <v>6</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="22">
+        <v>7</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="22">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="22">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="22">
+        <v>10</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B41" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C43" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C47" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C49" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C50" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C51" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="34"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C57" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C63" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="25"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C68" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C25:H25"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
@@ -1443,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -1535,7 +2503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
@@ -1791,7 +2759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>

--- a/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
-    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
-    <sheet name="チェックシート(Zabbix)" sheetId="4" r:id="rId5"/>
-    <sheet name="テンプレート(Zabbix)" sheetId="5" r:id="rId6"/>
+    <sheet name="利用手順" sheetId="1" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="2" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="3" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
+    <sheet name="チェックシート(Zabbix)" sheetId="5" r:id="rId5"/>
+    <sheet name="テンプレート(Zabbix)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
@@ -25,24 +25,84 @@
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1530994877" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1530994877" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1530994877" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1530994877"/>
+      <pm:revision xmlns:pm="smNativeData" day="1541449513" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1541449513" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1541449513" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1541449513"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+  <si>
+    <t>0. はじめに</t>
+  </si>
+  <si>
+    <t>* Zabbix監視設定情報を採取します。</t>
+  </si>
+  <si>
+    <t>* .\template\Zabbix が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\Zabbix\Zabbix監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査ドメイン</t>
+  </si>
+  <si>
+    <t>検査するシナリオID Zabbix を指定します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+  </si>
+  <si>
+    <t>検査対象ホスト名。</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Zabbix を指定します。</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+  </si>
+  <si>
+    <t>（未使用）</t>
+  </si>
+  <si>
+    <t>比較対象</t>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ホスト名を指定します。</t>
+  </si>
+  <si>
+    <t>入力例：</t>
+  </si>
   <si>
     <t>共通設定</t>
   </si>
   <si>
-    <t>検査ドメイン</t>
-  </si>
-  <si>
     <t>対象サーバ</t>
   </si>
   <si>
@@ -82,9 +142,75 @@
     <t>Zabbix</t>
   </si>
   <si>
+    <t>ostrich</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
+    <t>cent7</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\Zabbix\config_zabbix.groovy</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+  </si>
+  <si>
+    <t>// Zabbix接続情報</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.server   = '192.168.0.20'</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.user     = 'Admin'</t>
+  </si>
+  <si>
+    <t>account.Zabbix.Test.password = 'zabbix'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -241,9 +367,15 @@
     <t>利用可能。全ホスト検査の場合は未使用</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Syslog の取得有無。ログサイズが0の場合はエラーとなり、ログ採取に失敗している可能性がある。詳細は別シートに登録</t>
   </si>
   <si>
+    <t>Y1</t>
+  </si>
+  <si>
     <t>トリガー定義</t>
   </si>
   <si>
@@ -254,269 +386,35 @@
   </si>
   <si>
     <t>NotFoundError</t>
+  </si>
+  <si>
+    <t>ホストグループ</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Y1</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>0. はじめに</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>* Zabbix監視設定情報を採取します。</t>
-    <rPh sb="8" eb="10">
+    <t>監視テンプレート</t>
+    <rPh sb="0" eb="2">
       <t>カンシ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>_redmine:_Multi</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>* .\template\Zabbix が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>1. プロジェクトディレクトリの作成と移動</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>「.\template\Zabbix\Zabbix監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
-    <rPh sb="25" eb="27">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
-    <t>検査するシナリオID Zabbix を指定します。</t>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>検査対象ホスト名。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID Zabbix を指定します。</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>（未使用）</t>
-    <rPh sb="1" eb="4">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象ホスト名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>cent7</t>
-  </si>
-  <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad++ .\template\Zabbix\config_zabbix.groovy</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>以下の各検査対象の接続情報を編集します。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>// Zabbix接続情報</t>
-  </si>
-  <si>
-    <t>account.Zabbix.Test.server   = '192.168.0.20'</t>
-  </si>
-  <si>
-    <t>account.Zabbix.Test.user     = 'Admin'</t>
-  </si>
-  <si>
-    <t>account.Zabbix.Test.password = 'zabbix'</t>
-  </si>
-  <si>
-    <t>4. Getconfig インベントリ収集実行</t>
-  </si>
-  <si>
-    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>5. 実行結果の参照とコミット</t>
-  </si>
-  <si>
-    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>dir .\build</t>
-  </si>
-  <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t>getconfig -u local</t>
-  </si>
-  <si>
-    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>getconfig -u db</t>
+    <t>Zabbix</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -568,11 +466,13 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -581,14 +481,15 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +522,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -703,14 +615,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,23 +630,110 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,7 +802,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,11 +825,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,71 +875,92 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="出力" xfId="2" builtinId="21"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -952,13 +972,14 @@
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1530994877" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1541449513" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1530994877" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1541449513" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
-        <pm:color name="色 25" rgb="F2F2F2"/>
-        <pm:color name="色 26" rgb="CCFFFF"/>
+        <pm:color name="色 25" rgb="CCFFFF"/>
+        <pm:color name="色 26" rgb="F2F2F2"/>
+        <pm:color name="*20%灰色" rgb="000000"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -1255,513 +1276,1430 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N72"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A62" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="19" customWidth="1"/>
-    <col min="9" max="1017" width="8.75" style="19" customWidth="1"/>
-    <col min="1018" max="1019" width="11.625" style="19" customWidth="1"/>
-    <col min="1020" max="16384" width="9" style="19"/>
+    <col min="1" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="1017" width="8.75" customWidth="1"/>
+    <col min="1018" max="1019" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="38">
         <v>1</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="C28" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="38">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="C29" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="38">
         <v>3</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="C30" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="38">
         <v>4</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="38">
         <v>5</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="38">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="20" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="38">
         <v>7</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="38">
         <v>8</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="38">
         <v>9</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="38">
         <v>10</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="22">
-        <v>1</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="22">
-        <v>2</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="22">
-        <v>3</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="22">
-        <v>4</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="22">
-        <v>5</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="22">
-        <v>6</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="22">
-        <v>7</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="22">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="22">
-        <v>9</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="22">
-        <v>10</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C43" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C47" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="28"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="31"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C49" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C50" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="31"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C51" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B55" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C57" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="25"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B61" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C63" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="25"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B66" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C68" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="25"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="35"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="35"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="35"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="35"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="35"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="35"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="35"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="35"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="35"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="35"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="35"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="35"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="35"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="35"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="35"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="35"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="35"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="35"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="35"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="35"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="35"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="35"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="33"/>
+      <c r="B70" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="35"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="35"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="35"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="41"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1769,11 +2707,19 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1781,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1800,57 +2746,57 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2085,8 +3031,18 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$76:$C$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530994877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2099,9 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2147,54 +3101,54 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2204,62 +3158,70 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="14" t="s">
-        <v>14</v>
+      <c r="M5" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -2337,64 +3299,64 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -2402,7 +3364,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530994877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2431,33 +3393,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2494,7 +3456,7 @@
   <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530994877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2507,9 +3469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2550,194 +3510,194 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +3710,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530994877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2776,36 +3736,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -2813,16 +3773,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -3825,7 +4785,7 @@
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1530994877" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1541449513" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(Zabbix)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -58,9 +58,6 @@
     <t>「.\template\Zabbix\Zabbix監視設定チェックシート.xlsx」(本ファイル)を開きます。</t>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>検査ドメイン</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-  </si>
-  <si>
-    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
   </si>
   <si>
     <t>5. 実行結果の参照とコミット</t>
@@ -415,6 +409,53 @@
   </si>
   <si>
     <t>Zabbix</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Zabbix\config_zabbix.groovy -rp {Redmineプロジェクト名}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目になります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* 以下の2種類の検査シナリオがあります。用途に合わせて選択してください。</t>
+  </si>
+  <si>
+    <t>* Zabbix サーバ本体用 : ZabbixServer監視設定チェックシート.xlsx</t>
+  </si>
+  <si>
+    <t>* Zabbix 監視対象サーバ用 : Zabbix監視設定チェックシート.xlsx (本書の手順)</t>
+    <rPh sb="44" eb="46">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テジュン</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -829,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,9 +920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
@@ -941,9 +979,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +989,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,11 +1323,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1296,1414 +1341,1551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36" t="s">
+      <c r="E29" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="36">
+        <v>1</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="36">
+        <v>2</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="36">
+        <v>3</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="36">
+        <v>4</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="36">
+        <v>5</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="36">
+        <v>7</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="36">
         <v>8</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="38">
-        <v>1</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="38">
-        <v>2</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="38">
-        <v>3</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="38" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="36">
+        <v>9</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="34"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="36">
+        <v>10</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="38">
-        <v>4</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="38">
-        <v>5</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="38">
-        <v>6</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="38">
-        <v>7</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="38">
-        <v>8</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="35"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="38">
-        <v>9</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="35"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="38">
-        <v>10</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="33" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="35"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="35"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="35"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="18" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="34"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="35"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="34"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="35"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="35"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="21" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="34"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="35"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="35"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="24" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="34"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="35"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="24" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="34"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="27" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="34"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="34"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="35"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="33" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="34"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="35"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="35"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="34"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="34"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="35"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="35"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="18" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="34"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="34"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="35"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="35"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="33" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="34"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="34"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="35"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="35"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="34"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="34"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="35"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="35"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="18" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="34"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="35"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="35"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34" t="s">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="34"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="34"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="35"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
-      <c r="B66" s="34" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="34"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="34"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="35"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="35"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="33"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="18" t="s">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="34"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="34"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="32"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="34"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="35"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="35"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="33"/>
-      <c r="B70" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="35"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="33"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="35"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="33"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="35"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="41"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="34"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="32"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="34"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="32"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="34"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="32"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="34"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="39"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
         <v>120</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,9 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2746,57 +2926,57 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3035,7 +3215,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$76:$C$77</xm:f>
+            <xm:f>利用手順!$C$83:$C$84</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -3101,54 +3281,54 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3158,26 +3338,26 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -3187,40 +3367,40 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3393,33 +3573,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3510,194 +3690,194 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3736,36 +3916,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -3773,16 +3953,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -332,18 +332,6 @@
   </si>
   <si>
     <t>ホストID。全ホスト検査の場合は未使用</t>
-  </si>
-  <si>
-    <t>ホストグループ構成</t>
-  </si>
-  <si>
-    <t>ホストグループ構成。全ホスト検査の場合は未使用</t>
-  </si>
-  <si>
-    <t>適用テンプレート</t>
-  </si>
-  <si>
-    <t>適用テンプレート。全ホスト検査の場合は未使用</t>
   </si>
   <si>
     <t>表示名</t>
@@ -455,6 +443,31 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ホスト設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シスログ監視</t>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>トリガー設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -870,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,16 +1004,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1453,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
       <c r="B6" s="33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -1454,7 +1473,7 @@
       <c r="A7" s="32"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1473,7 +1492,7 @@
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1635,7 +1654,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -1671,7 +1690,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>7</v>
@@ -1694,7 +1713,7 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
       <c r="B20" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>9</v>
@@ -1717,7 +1736,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>11</v>
@@ -1856,14 +1875,14 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
@@ -2493,7 +2512,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="33"/>
       <c r="C60" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -2763,8 +2782,8 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="32"/>
       <c r="B75" s="33"/>
-      <c r="C75" s="42" t="s">
-        <v>121</v>
+      <c r="C75" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
@@ -2782,7 +2801,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
       <c r="B76" s="33"/>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="18"/>
@@ -2801,7 +2820,7 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
       <c r="B77" s="33"/>
-      <c r="C77" s="42"/>
+      <c r="C77" s="40"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -2818,8 +2837,8 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
       <c r="B78" s="33"/>
-      <c r="C78" s="42" t="s">
-        <v>122</v>
+      <c r="C78" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
@@ -2837,8 +2856,8 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
       <c r="B79" s="33"/>
-      <c r="C79" s="43" t="s">
-        <v>124</v>
+      <c r="C79" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -2872,15 +2891,15 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2926,14 +2945,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3205,7 +3224,7 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3354,10 +3373,10 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -3367,7 +3386,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3647,243 +3666,244 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK14"/>
+  <dimension ref="A1:AML12"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="47.625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
+      <c r="B4" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>93</v>
+      <c r="B5" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>96</v>
+      <c r="B6" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>74</v>
+      <c r="B7" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
+      <c r="B8" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3953,16 +3973,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
+++ b/template/Zabbix/blank_Zabbix監視設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1344,7 +1344,7 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0"/>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2928,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3002,10 +3002,10 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -3013,10 +3013,10 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -3024,10 +3024,10 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -3668,9 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML12"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3678,9 +3676,9 @@
     <col min="2" max="2" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3" customWidth="1"/>
-    <col min="7" max="7" width="47.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
@@ -3727,13 +3725,13 @@
         <v>87</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3750,13 +3748,13 @@
         <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3770,12 +3768,12 @@
       <c r="D6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3789,12 +3787,12 @@
       <c r="D7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3808,12 +3806,12 @@
       <c r="D8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3827,12 +3825,12 @@
       <c r="D9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3846,12 +3844,12 @@
       <c r="D10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -3868,13 +3866,13 @@
         <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3891,13 +3889,13 @@
         <v>80</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
